--- a/pred_ohlcv/54_21/2020-01-16 AMO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 AMO ohlcv.xlsx
@@ -2706,7 +2706,7 @@
         <v>54853824.07479998</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>53976766.56979998</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>53286175.83679998</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>53771671.75059998</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>54801292.97859998</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>55517310.99859998</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>56852059.67259999</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>57551126.16759998</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>56233329.01859999</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>54974862.20559999</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>58673980.78159998</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>57856253.61259998</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>57856253.61259998</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>59905959.57199998</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>60664356.40399998</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>61583792.72099999</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>60282947.09699999</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>59202471.29399998</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>60732162.50299998</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>62041483.88999999</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>60562647.25599998</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>61558365.43499998</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>62350665.31699998</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>61380374.42499998</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>62232004.64299998</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>61371898.66199999</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>62791404.95999999</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>61626171.53399999</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>60469413.86999999</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>61922823.21699999</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>62901589.87099999</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>63634559.41599999</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>62443898.70199999</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>61532938.14699999</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>60605026.06699999</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>62100814.226</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>62910065.632</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>61693977.631</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>62757501.90899999</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>63651510.939</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>62850735.29499999</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>64024444.484</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>64748938.267</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>63643035.17699999</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>64409907.77199999</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>65846365.59499999</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>64613326.06999999</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>63401942.9883</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>64863828.0983</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>66113819.14829999</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>65101149.44429999</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>64054576.69129999</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>65007916.05829999</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>66520655.74229999</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>65533413.32629999</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>66885113.52529999</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>65880919.58429999</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>67385183.50629999</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>68330047.11129999</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>66952919.62529999</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>65465607.22829999</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>66749501.32829999</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>65923298.39729999</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>64791968.02029999</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>63347034.43529999</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>62991052.41529999</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>63698594.67329999</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>62423176.33629999</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>61054524.61229999</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>62194330.75129999</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>63283282.31629999</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>61880727.54329999</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>60520551.58229998</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>61745115.34529998</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>60317133.28529998</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>60319108.66109998</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>60319108.66109998</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>59543760.30409998</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>57111201.08429997</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>58259482.98629998</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>57145104.13429998</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>55801879.69829998</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>55310285.48029998</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>55310285.48029998</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>56365333.99529998</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>55909202.88549998</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>55032145.38049997</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>55722736.11349998</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>57193096.98549998</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>56409272.86649998</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>57532127.48049998</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>58799070.05549998</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>57591457.81749998</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>58621079.04549998</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>57905061.02549998</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>59239809.69949998</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>59938876.19449998</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>58621079.04549998</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>59879545.85849998</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>60841360.98749998</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>60844616.46569999</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>58501977.55369999</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>59913008.08869998</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>59913008.08869998</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>60747686.78269998</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>61946823.25869998</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>61205377.95169999</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>62277377.99169999</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>60756161.77589998</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>59870628.50789998</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>61052813.45889998</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>60209659.00289998</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>61078240.74589998</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>53284290.74589998</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>52525893.91389998</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>49569759.22089998</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>40147658.50709999</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>38694249.16009998</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>37715482.50609998</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-8725923.547400018</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-16305038.23840002</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-16303069.23840002</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-18694865.42740002</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-35449611.10960002</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-36606368.77360002</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-137497502.9692001</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-137912815.3252001</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-138747489.7843001</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-140116141.5083001</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-138976335.3693001</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-137887383.8043001</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-139289938.5773001</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-140650114.5383001</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-139425550.7753001</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-137997568.7153001</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-136611965.4673001</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-137387313.8243001</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-136094943.9623001</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-134646662.0603001</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-132532283.2083001</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-133875507.6443001</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-133873508.6443001</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-127929500.2163001</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-150164895.0110003</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-151070862.9791003</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-151949906.7441003</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-151953389.9192003</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-151262799.1862003</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-153072190.5532003</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-152359407.1362004</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-255434275.6589494</v>
       </c>
       <c r="H695">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-253955439.0249494</v>
       </c>
       <c r="H696">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-253953451.0249494</v>
       </c>
       <c r="H697">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-254949169.2039494</v>
       </c>
       <c r="H698">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-254711821.0442494</v>
       </c>
       <c r="H699">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-254711821.0442494</v>
       </c>
       <c r="H700">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-254709700.9608494</v>
       </c>
       <c r="H701">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-249351073.9039494</v>
       </c>
       <c r="H702">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-250202704.1219494</v>
       </c>
       <c r="H703">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-249342598.1409494</v>
       </c>
       <c r="H704">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-249642598.1409494</v>
       </c>
       <c r="H705">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-248223091.8429494</v>
       </c>
       <c r="H706">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-249388325.2689494</v>
       </c>
       <c r="H707">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-250545082.9329494</v>
       </c>
       <c r="H708">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-247966803.5551494</v>
       </c>
       <c r="H712">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-248579609.5875494</v>
       </c>
       <c r="H716">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-248577620.5875494</v>
       </c>
       <c r="H717">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-262931526.7265494</v>
       </c>
       <c r="H728">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-261495068.9035494</v>
       </c>
       <c r="H729">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-260259116.8881494</v>
       </c>
       <c r="H731">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-260159116.8881494</v>
       </c>
       <c r="H732">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-260523596.9957494</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-261476936.3627494</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-262989676.0467494</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-265106145.0982493</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-264161281.4932493</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-265538408.9792493</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-264051096.5822493</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-275917121.6388493</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-274633227.5388493</v>
       </c>
       <c r="H749">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 AMO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 AMO ohlcv.xlsx
@@ -938,7 +938,7 @@
         <v>-68777828.85340004</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-67926198.63540004</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-75174673.24690004</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-76441615.82190004</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-75717122.03890003</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>52943091.35979998</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>56345558.25279998</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>55307461.26179998</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>56701540.27279998</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>57409082.53079998</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>56133664.19379999</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>54765012.46979999</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>55904818.60879999</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>56993770.17379998</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>55591215.40079998</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>56951391.36179999</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>56747973.06479998</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>57803021.58079998</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>56688642.72879998</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>55345418.29279999</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>56095339.36279999</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>54853824.07479998</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>53917436.23279998</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>54972484.74779999</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>53951339.28179999</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>54853824.07479998</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>53976766.56979998</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>53286175.83679998</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>51815814.96479998</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>52599639.08379998</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>53722493.69779998</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>54989436.27279998</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>53771671.75059998</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>54801292.97859998</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>55517310.99859998</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>56852059.67259999</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>57551126.16759998</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>54974862.20559999</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>55936677.33459999</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>58673980.78159998</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>57856253.61259998</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>59796835.39559999</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>58724835.35559999</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>60774541.31499998</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>59905959.57199998</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>60664356.40399998</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>61583792.72099999</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>60282947.09699999</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>59202471.29399998</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>60732162.50299998</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>62041483.88999999</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>60562647.25599998</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>61558365.43499998</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>62350665.31699998</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>61380374.42499998</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>62232004.64299998</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>61371898.66199999</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>62791404.95999999</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>61626171.53399999</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>60469413.86999999</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>61922823.21699999</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>62901589.87099999</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>63634559.41599999</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>62443898.70199999</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>61532938.14699999</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>60605026.06699999</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>62100814.226</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>62910065.632</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>61693977.631</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>62757501.90899999</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>63651510.939</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>62850735.29499999</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>64024444.484</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>64748938.267</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>63643035.17699999</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>64409907.77199999</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>65846365.59499999</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>64613326.06999999</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>63401942.9883</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>64863828.0983</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>66113819.14829999</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>65101149.44429999</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>64054576.69129999</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>65007916.05829999</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>66520655.74229999</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>65533413.32629999</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>66885113.52529999</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>65880919.58429999</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>67385183.50629999</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>68330047.11129999</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>66952919.62529999</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>65465607.22829999</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>66749501.32829999</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>65923298.39729999</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>64791968.02029999</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>63347034.43529999</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>62991052.41529999</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>63698594.67329999</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>62423176.33629999</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>61054524.61229999</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>62194330.75129999</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>63283282.31629999</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>61880727.54329999</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>60520551.58229998</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>61745115.34529998</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>60317133.28529998</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>59543760.30409998</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>57111201.08429997</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>58259482.98629998</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>57145104.13429998</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>55801879.69829998</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>56365333.99529998</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>55006718.09249998</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>55909202.88549998</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>55032145.38049997</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>57193096.98549998</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>58799070.05549998</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>57591457.81749998</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>58621079.04549998</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>57905061.02549998</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>59239809.69949998</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>59938876.19449998</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>58621079.04549998</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>59879545.85849998</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>60841360.98749998</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>60844616.46569999</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>58501977.55369999</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>59913008.08869998</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>59913008.08869998</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>60747686.78269998</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>61946823.25869998</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>61205377.95169999</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>62277377.99169999</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>60756161.77589998</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>59870628.50789998</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>61052813.45889998</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>60209659.00289998</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>61078240.74589998</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>53284290.74589998</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>52525893.91389998</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>49569759.22089998</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>50489195.53789999</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>43839467.41119999</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>43839467.41119999</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>42309776.20219999</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>38990900.84309999</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>40147658.50709999</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>38694249.16009998</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>37715482.50609998</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>27924559.00299998</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>9693716.817399982</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>7787207.449499981</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-8725923.547400018</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-16305038.23840002</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-16303069.23840002</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-18694865.42740002</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-35449611.10960002</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-36606368.77360002</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-137497502.9692001</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-137912815.3252001</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-138747489.7843001</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-140116141.5083001</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-138976335.3693001</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-137887383.8043001</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-139289938.5773001</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-140650114.5383001</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-139425550.7753001</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-137997568.7153001</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-136611965.4673001</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-137387313.8243001</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-136094943.9623001</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-134646662.0603001</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-132532283.2083001</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-133875507.6443001</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-133873508.6443001</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-127929500.2163001</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-150164895.0110003</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-151070862.9791003</v>
       </c>
       <c r="H656">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-151949906.7441003</v>
       </c>
       <c r="H657">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-151953389.9192003</v>
       </c>
       <c r="H658">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-151262799.1862003</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-153072190.5532003</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-152359407.1362004</v>
       </c>
       <c r="H671">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-254711821.0442494</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-254711821.0442494</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-254709700.9608494</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-249351073.9039494</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-250202704.1219494</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-249342598.1409494</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-249642598.1409494</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-248223091.8429494</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-249388325.2689494</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-250545082.9329494</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-248579609.5875494</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-248577620.5875494</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-263698399.3215494</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-262931526.7265494</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-261495068.9035494</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-261499452.7858494</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-260259116.8881494</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-260159116.8881494</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-260523596.9957494</v>
       </c>
       <c r="H738">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-261476936.3627494</v>
       </c>
       <c r="H739">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-262989676.0467494</v>
       </c>
       <c r="H740">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-265106145.0982493</v>
       </c>
       <c r="H744">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-264161281.4932493</v>
       </c>
       <c r="H745">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-265538408.9792493</v>
       </c>
       <c r="H746">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-264051096.5822493</v>
       </c>
       <c r="H747">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-275917121.6388493</v>
       </c>
       <c r="H748">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-274633227.5388493</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-273807024.6078493</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-274938354.9848493</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-273493421.3998493</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
